--- a/Uploads/FARTCOIN-USD_1y.xlsx
+++ b/Uploads/FARTCOIN-USD_1y.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,10 +580,65 @@
         <v>45831</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.0454</v>
       </c>
       <c r="C13" t="n">
-        <v>4118183.58</v>
+        <v>48881062.42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0333</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31802900.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9962</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25998885.28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9469</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19837083.39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0085</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20413506.96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.0305</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1444715.46</v>
       </c>
     </row>
   </sheetData>
